--- a/impl/src/main/resources/quotation/print/quotation-sheet.xlsx
+++ b/impl/src/main/resources/quotation/print/quotation-sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojaehun/IdeaProjects/pico-erp-server/quotation-impl/src/main/resources/quotation/print/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojaehun/IdeaProjects/pico-erp-quotation/impl/src/main/resources/quotation/print/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="2640" windowWidth="28860" windowHeight="24620"/>
+    <workbookView xWindow="21180" yWindow="2780" windowWidth="28860" windowHeight="24620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quotation" sheetId="5" r:id="rId1"/>
@@ -290,17 +290,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${data.supplierData.name}</t>
-  </si>
-  <si>
-    <t>${data.supplierData.address.street} ${data.supplierData.address.detail}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.supplierData.address.postalCode}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>전화</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -313,14 +302,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${helper.formatPhoneNumber(data.supplierData.telephoneNumber)}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${helper.formatPhoneNumber(data.supplierData.faxNumber)}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.code.value}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -329,34 +310,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${data.customerData.id.value}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.projectData.customerManagerContact.name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.customerData.name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.customerData.address.street} ${data.customerData.address.detail}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.customerData.address.postalCode}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${helper.formatPhoneNumber(data.projectData.customerManagerContact.telephoneNumber)}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.managerData.name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.name}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -554,6 +507,54 @@
   </si>
   <si>
     <t>${bom.estimatedIsolatedUnitCost.total}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.supplier.address.street} ${data.supplier.address.detail}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.supplier.address.postalCode}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${helper.formatPhoneNumber(data.supplier.telephoneNumber)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.supplier.name}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${helper.formatPhoneNumber(data.supplier.faxNumber)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.customer.id.value}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.project.customerManagerContact.name}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.customer.name}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.customer.address.street} ${data.customer.address.detail}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.customer.address.postalCode}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${helper.formatPhoneNumber(data.project.customerManagerContact.telephoneNumber)}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.manager.name}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1122,6 +1123,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1131,12 +1141,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1161,31 +1165,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1628,7 @@
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="38" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="22"/>
@@ -1637,10 +1638,10 @@
       <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -1652,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1663,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1671,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="22"/>
@@ -1682,22 +1683,22 @@
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1705,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1737,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1748,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1756,11 +1757,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="22"/>
@@ -1769,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1777,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1792,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1807,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1830,10 +1831,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1855,19 +1856,19 @@
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -1880,72 +1881,72 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="48" t="s">
+      <c r="A17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="G19" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="50" t="s">
+      <c r="H19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="44" t="s">
         <v>46</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,7 +1957,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <f>SUM(H17:H17, H19:H19)</f>
@@ -1966,7 +1967,7 @@
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1982,16 +1983,16 @@
       <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="A22" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H22" s="10">
         <f>H20*H21</f>
@@ -2000,12 +2001,12 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="20" t="s">
         <v>0</v>
       </c>
@@ -2016,26 +2017,26 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="20"/>
       <c r="H24" s="18"/>
       <c r="I24" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -2082,7 +2083,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2096,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2109,75 +2110,75 @@
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="39" t="s">
+      <c r="I3" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="I4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2188,13 +2189,13 @@
     <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2213,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="C1" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2229,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2243,95 +2244,95 @@
         <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="66" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66" t="s">
+      <c r="H2" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="66"/>
+      <c r="J2" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="64" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="56"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="G4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2342,14 +2343,14 @@
     <row r="22" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:C3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/impl/src/main/resources/quotation/print/quotation-sheet.xlsx
+++ b/impl/src/main/resources/quotation/print/quotation-sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="2780" windowWidth="28860" windowHeight="24620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="quotation" sheetId="5" r:id="rId1"/>
@@ -494,14 +494,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$bom.quantity}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${bom.quantityPerRoot}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${bom.estimatedAccumulatedUnitCost.total}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -555,6 +547,14 @@
   </si>
   <si>
     <t>${data.manager.name}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${bom.quantity}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${bom.quantityRatio}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1165,6 +1165,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1181,12 +1187,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1628,7 @@
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="22"/>
@@ -1653,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="22"/>
@@ -1691,14 +1691,14 @@
         <v>21</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1706,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1757,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2114,30 +2114,30 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="60" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="64" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="65" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="50"/>
       <c r="D3" s="49"/>
       <c r="E3" s="50"/>
@@ -2159,7 +2159,7 @@
       <c r="A4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="46"/>
       <c r="D4" s="45" t="s">
         <v>53</v>
@@ -2169,16 +2169,16 @@
         <v>54</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="C1" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -2248,36 +2248,36 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="64" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="65" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="64" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="66" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="50"/>
       <c r="D3" s="57"/>
       <c r="E3" s="39" t="s">
@@ -2305,7 +2305,7 @@
       <c r="A4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="46"/>
       <c r="D4" s="17" t="s">
         <v>54</v>
@@ -2314,7 +2314,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>55</v>

--- a/impl/src/main/resources/quotation/print/quotation-sheet.xlsx
+++ b/impl/src/main/resources/quotation/print/quotation-sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="quotation" sheetId="5" r:id="rId1"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${itemAddition.value} 포함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${itemAddition.name}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -555,6 +551,10 @@
   </si>
   <si>
     <t>${bom.quantityRatio}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${itemAddition.rate} 포함</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1612,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1628,7 @@
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="22"/>
@@ -1653,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="22"/>
@@ -1691,14 +1691,14 @@
         <v>21</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -1706,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1757,11 +1757,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="22"/>
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -1868,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>19</v>
@@ -1907,15 +1907,15 @@
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="56"/>
       <c r="C18" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="51" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
@@ -1926,27 +1926,27 @@
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <f>SUM(H17:H17, H19:H19)</f>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -1992,7 +1992,7 @@
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
       <c r="G22" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="10">
         <f>H20*H21</f>
@@ -2082,7 +2082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2097,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2120,7 +2120,7 @@
       <c r="B2" s="63"/>
       <c r="C2" s="64"/>
       <c r="D2" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="66" t="s">
@@ -2143,42 +2143,42 @@
       <c r="E3" s="50"/>
       <c r="F3" s="57"/>
       <c r="G3" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>62</v>
-      </c>
       <c r="I3" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="46"/>
       <c r="D4" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="I4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2229,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2264,11 +2264,11 @@
         <v>19</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="60"/>
       <c r="J2" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="60"/>
       <c r="L2" s="66" t="s">
@@ -2281,58 +2281,58 @@
       <c r="C3" s="50"/>
       <c r="D3" s="57"/>
       <c r="E3" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>62</v>
       </c>
       <c r="G3" s="57"/>
       <c r="H3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>65</v>
-      </c>
       <c r="J3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>64</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>65</v>
       </c>
       <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="46"/>
       <c r="D4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>55</v>
-      </c>
       <c r="H4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
